--- a/Documentação/Conceito KFB - Fill Rate e OTIF.xlsx
+++ b/Documentação/Conceito KFB - Fill Rate e OTIF.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://komatsuforest-my.sharepoint.com/personal/ramon_lara_komatsuforest_com/Documents/Área de Trabalho/OTIF &amp; Fill Rate/Documentação/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://komatsuforest-my.sharepoint.com/personal/ramon_lara_komatsuforest_com/Documents/Área de Trabalho/kms_OTIF_E_Fill_Rate/Documentação/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{E191AB57-9F22-4B70-8DF5-244B50C0D7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFF2A5A5-074A-48F4-99B8-9F74DDA7FCBD}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{E191AB57-9F22-4B70-8DF5-244B50C0D7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88D548C3-4695-4F34-816C-72475B854179}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{C9AF9F4E-61CD-41E0-9F26-44A8C6A5384C}"/>
   </bookViews>
@@ -533,42 +533,6 @@
     <xf numFmtId="9" fontId="0" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -584,6 +548,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -928,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DBE2BD0-81FD-4F7B-813B-9881996462C8}">
   <dimension ref="B3:L34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -944,15 +944,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
     </row>
     <row r="4" spans="2:12" ht="3" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
@@ -988,7 +988,7 @@
       <c r="D6" s="14">
         <v>10</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="37">
         <v>10</v>
       </c>
       <c r="F6" s="13">
@@ -998,7 +998,7 @@
         <f>IF(E6/D6&gt;=1,1,E6/D6)</f>
         <v>1</v>
       </c>
-      <c r="H6" s="42">
+      <c r="H6" s="52">
         <f>IF(SUM(G6:G8)=COUNTA(G6:G8),1,0)</f>
         <v>0</v>
       </c>
@@ -1013,7 +1013,7 @@
       <c r="D7" s="18">
         <v>5</v>
       </c>
-      <c r="E7" s="50">
+      <c r="E7" s="38">
         <v>10</v>
       </c>
       <c r="F7" s="17">
@@ -1023,7 +1023,7 @@
         <f t="shared" ref="G7" si="0">IF(E7/D7&gt;=1,1,E7/D7)</f>
         <v>1</v>
       </c>
-      <c r="H7" s="40"/>
+      <c r="H7" s="50"/>
       <c r="L7" t="s">
         <v>33</v>
       </c>
@@ -1038,7 +1038,7 @@
       <c r="D8" s="22">
         <v>30</v>
       </c>
-      <c r="E8" s="51">
+      <c r="E8" s="39">
         <v>20</v>
       </c>
       <c r="F8" s="21">
@@ -1048,8 +1048,8 @@
         <f>IF(E8/D8&gt;=1,1,E8/D8)</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="H8" s="41"/>
-      <c r="J8" s="48">
+      <c r="H8" s="51"/>
+      <c r="J8" s="36">
         <f>F8/D8</f>
         <v>0.33333333333333331</v>
       </c>
@@ -1067,7 +1067,7 @@
       <c r="D9" s="26">
         <v>100</v>
       </c>
-      <c r="E9" s="52">
+      <c r="E9" s="40">
         <v>200</v>
       </c>
       <c r="F9" s="25">
@@ -1077,7 +1077,7 @@
         <f t="shared" ref="G9:G11" si="1">IF(E9/D9&gt;=1,1,E9/D9)</f>
         <v>1</v>
       </c>
-      <c r="H9" s="39">
+      <c r="H9" s="49">
         <f>IF(SUM(G9:G11)=COUNTA(G9:G11),1,0)</f>
         <v>0</v>
       </c>
@@ -1092,7 +1092,7 @@
       <c r="D10" s="18">
         <v>10</v>
       </c>
-      <c r="E10" s="50">
+      <c r="E10" s="38">
         <v>5</v>
       </c>
       <c r="F10" s="17">
@@ -1102,7 +1102,7 @@
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="H10" s="40"/>
+      <c r="H10" s="50"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="20" t="s">
@@ -1114,7 +1114,7 @@
       <c r="D11" s="22">
         <v>10</v>
       </c>
-      <c r="E11" s="51">
+      <c r="E11" s="39">
         <v>0</v>
       </c>
       <c r="F11" s="21">
@@ -1124,7 +1124,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H11" s="41"/>
+      <c r="H11" s="51"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B12" s="24" t="s">
@@ -1136,17 +1136,17 @@
       <c r="D12" s="26">
         <v>100</v>
       </c>
-      <c r="E12" s="52">
+      <c r="E12" s="40">
         <v>200</v>
       </c>
       <c r="F12" s="25">
         <v>100</v>
       </c>
       <c r="G12" s="27">
-        <f t="shared" ref="G12:G14" si="2">IF(E12/D12&gt;=1,1,E12/D12)</f>
-        <v>1</v>
-      </c>
-      <c r="H12" s="44">
+        <f t="shared" ref="G12:G13" si="2">IF(E12/D12&gt;=1,1,E12/D12)</f>
+        <v>1</v>
+      </c>
+      <c r="H12" s="42">
         <f>IF(SUM(G12:G14)=COUNTA(G12:G14),1,0)</f>
         <v>1</v>
       </c>
@@ -1161,7 +1161,7 @@
       <c r="D13" s="18">
         <v>30</v>
       </c>
-      <c r="E13" s="50">
+      <c r="E13" s="38">
         <v>300</v>
       </c>
       <c r="F13" s="17">
@@ -1171,7 +1171,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H13" s="45"/>
+      <c r="H13" s="43"/>
     </row>
     <row r="14" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="20" t="s">
@@ -1183,7 +1183,7 @@
       <c r="D14" s="22">
         <v>20</v>
       </c>
-      <c r="E14" s="51">
+      <c r="E14" s="39">
         <v>50</v>
       </c>
       <c r="F14" s="21">
@@ -1193,7 +1193,7 @@
         <f>IF(E14/D14&gt;=1,1,E14/D14)</f>
         <v>1</v>
       </c>
-      <c r="H14" s="46"/>
+      <c r="H14" s="44"/>
     </row>
     <row r="15" spans="2:12" ht="3" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
@@ -1229,15 +1229,15 @@
       <c r="G18" s="4"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
     </row>
     <row r="21" spans="2:10" ht="3" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
@@ -1283,7 +1283,7 @@
         <f>IF(F23/D23&gt;=1,1,0)</f>
         <v>1</v>
       </c>
-      <c r="H23" s="38">
+      <c r="H23" s="48">
         <f>IF(SUM(G23:G25)=COUNTA(G23:G25),1,0)</f>
         <v>1</v>
       </c>
@@ -1308,7 +1308,7 @@
         <f t="shared" ref="G24:G28" si="3">IF(F24/D24&gt;=1,1,0)</f>
         <v>1</v>
       </c>
-      <c r="H24" s="36"/>
+      <c r="H24" s="46"/>
     </row>
     <row r="25" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="20" t="s">
@@ -1330,7 +1330,7 @@
         <f>IF(F25/D25&gt;=1,1,0)</f>
         <v>1</v>
       </c>
-      <c r="H25" s="37"/>
+      <c r="H25" s="47"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="24" t="s">
@@ -1352,7 +1352,7 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H26" s="39">
+      <c r="H26" s="49">
         <f>IF(SUM(G26:G28)=COUNTA(G26:G28),1,0)</f>
         <v>0</v>
       </c>
@@ -1377,7 +1377,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H27" s="40"/>
+      <c r="H27" s="50"/>
     </row>
     <row r="28" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B28" s="20" t="s">
@@ -1399,7 +1399,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H28" s="41"/>
+      <c r="H28" s="51"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="24" t="s">
@@ -1421,7 +1421,7 @@
         <f t="shared" ref="G29:G31" si="4">IF(E29/D29&gt;=1,1,E29/D29)</f>
         <v>1</v>
       </c>
-      <c r="H29" s="35">
+      <c r="H29" s="45">
         <f>IF(SUM(G29:G31)=COUNTA(G29:G31),1,0)</f>
         <v>1</v>
       </c>
@@ -1446,7 +1446,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H30" s="36"/>
+      <c r="H30" s="46"/>
     </row>
     <row r="31" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B31" s="20" t="s">
@@ -1468,14 +1468,14 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H31" s="37"/>
+      <c r="H31" s="47"/>
       <c r="J31">
         <f>2/9*100</f>
         <v>22.222222222222221</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="J32" s="47">
+      <c r="J32" s="35">
         <f>100-J31</f>
         <v>77.777777777777771</v>
       </c>
